--- a/Documentation Set/11. FunctionalRequirements-(UserStories).xlsx
+++ b/Documentation Set/11. FunctionalRequirements-(UserStories).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushdavahora/Desktop/PACE/Spring 2023/Computer Science Project 1/Project Deliveries/Functional Requirement User Stories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013A342-4BFD-4F47-B638-A395E65E53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEFE65E-5FEB-8543-BE81-B31CD8A3EC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="29840" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>Iteration</t>
   </si>
@@ -337,7 +337,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +356,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -394,21 +400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -471,21 +462,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -587,13 +563,26 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -603,7 +592,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,59 +601,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,7 +984,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -999,52 +1000,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1064,7 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1082,26 +1083,30 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1120,206 +1125,206 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1328,17 +1333,17 @@
       <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1347,99 +1352,99 @@
       <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
